--- a/Code/Results/Cases/Case_5_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_152/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018951995817235</v>
+        <v>1.041804464500799</v>
       </c>
       <c r="D2">
-        <v>1.039325812583286</v>
+        <v>1.051057722846996</v>
       </c>
       <c r="E2">
-        <v>1.022756595302072</v>
+        <v>1.040025812447301</v>
       </c>
       <c r="F2">
-        <v>1.043627935217139</v>
+        <v>1.059670161041093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057326724989831</v>
+        <v>1.046515349916376</v>
       </c>
       <c r="J2">
-        <v>1.040580263693332</v>
+        <v>1.046883698422676</v>
       </c>
       <c r="K2">
-        <v>1.050263170891195</v>
+        <v>1.053810279920723</v>
       </c>
       <c r="L2">
-        <v>1.033907743140564</v>
+        <v>1.0428093309011</v>
       </c>
       <c r="M2">
-        <v>1.054511168346385</v>
+        <v>1.062399032429219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023196566081197</v>
+        <v>1.042699779461084</v>
       </c>
       <c r="D3">
-        <v>1.042680902625749</v>
+        <v>1.051785684973364</v>
       </c>
       <c r="E3">
-        <v>1.026146429202696</v>
+        <v>1.040786244702254</v>
       </c>
       <c r="F3">
-        <v>1.047484111177962</v>
+        <v>1.060529093033269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058895900232825</v>
+        <v>1.046786279295741</v>
       </c>
       <c r="J3">
-        <v>1.04307424129586</v>
+        <v>1.047425461809878</v>
       </c>
       <c r="K3">
-        <v>1.052795314713729</v>
+        <v>1.05435103014468</v>
       </c>
       <c r="L3">
-        <v>1.036455344425027</v>
+        <v>1.043380233574392</v>
       </c>
       <c r="M3">
-        <v>1.057543441099188</v>
+        <v>1.06307212643042</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02589023449915</v>
+        <v>1.04327963670386</v>
       </c>
       <c r="D4">
-        <v>1.044812431441097</v>
+        <v>1.052257150708121</v>
       </c>
       <c r="E4">
-        <v>1.028303227647343</v>
+        <v>1.041279114036585</v>
       </c>
       <c r="F4">
-        <v>1.049935642538986</v>
+        <v>1.061085641440234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059882161962274</v>
+        <v>1.046960567263925</v>
       </c>
       <c r="J4">
-        <v>1.044654076893722</v>
+        <v>1.047775896780014</v>
       </c>
       <c r="K4">
-        <v>1.054398497718216</v>
+        <v>1.054700686201352</v>
       </c>
       <c r="L4">
-        <v>1.038071649123588</v>
+        <v>1.043749801297007</v>
       </c>
       <c r="M4">
-        <v>1.059466548225948</v>
+        <v>1.063507779662342</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027010415860605</v>
+        <v>1.043523533902915</v>
       </c>
       <c r="D5">
-        <v>1.045699362769169</v>
+        <v>1.052455455200362</v>
       </c>
       <c r="E5">
-        <v>1.029201444192569</v>
+        <v>1.041486510733213</v>
       </c>
       <c r="F5">
-        <v>1.050956136140311</v>
+        <v>1.061319795130716</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060289976962632</v>
+        <v>1.047033592648052</v>
       </c>
       <c r="J5">
-        <v>1.045310342217018</v>
+        <v>1.047923189257279</v>
       </c>
       <c r="K5">
-        <v>1.055064256647881</v>
+        <v>1.0548476216312</v>
       </c>
       <c r="L5">
-        <v>1.038743663765643</v>
+        <v>1.043905203574987</v>
       </c>
       <c r="M5">
-        <v>1.060265957114202</v>
+        <v>1.063690954743023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027197793410052</v>
+        <v>1.0435644926198</v>
       </c>
       <c r="D6">
-        <v>1.045847752961403</v>
+        <v>1.052488757232648</v>
       </c>
       <c r="E6">
-        <v>1.029351767878935</v>
+        <v>1.041521344906079</v>
       </c>
       <c r="F6">
-        <v>1.05112689665375</v>
+        <v>1.061359121115607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060358056018614</v>
+        <v>1.047045839526733</v>
       </c>
       <c r="J6">
-        <v>1.045420075329299</v>
+        <v>1.047947918497557</v>
       </c>
       <c r="K6">
-        <v>1.055175564952706</v>
+        <v>1.054872289184393</v>
       </c>
       <c r="L6">
-        <v>1.038856065577915</v>
+        <v>1.043931298377178</v>
       </c>
       <c r="M6">
-        <v>1.060399657290021</v>
+        <v>1.063721712155978</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025905249962015</v>
+        <v>1.043282895179825</v>
       </c>
       <c r="D7">
-        <v>1.044824318306301</v>
+        <v>1.052259800070339</v>
       </c>
       <c r="E7">
-        <v>1.028315262712696</v>
+        <v>1.041281884519432</v>
       </c>
       <c r="F7">
-        <v>1.049949317808267</v>
+        <v>1.061088769505224</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059887637759345</v>
+        <v>1.046961543997376</v>
       </c>
       <c r="J7">
-        <v>1.044662876682056</v>
+        <v>1.047777865030117</v>
       </c>
       <c r="K7">
-        <v>1.05440742562273</v>
+        <v>1.054702649796931</v>
       </c>
       <c r="L7">
-        <v>1.038080657721789</v>
+        <v>1.043751877649903</v>
       </c>
       <c r="M7">
-        <v>1.059477265243409</v>
+        <v>1.06351022715452</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020397668376151</v>
+        <v>1.042106930131979</v>
       </c>
       <c r="D8">
-        <v>1.040468018598055</v>
+        <v>1.051303651989023</v>
       </c>
       <c r="E8">
-        <v>1.023909962395382</v>
+        <v>1.040282633586254</v>
       </c>
       <c r="F8">
-        <v>1.044940390930816</v>
+        <v>1.059960282349027</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057863157302245</v>
+        <v>1.046607122823236</v>
       </c>
       <c r="J8">
-        <v>1.041430281186894</v>
+        <v>1.047066814507837</v>
       </c>
       <c r="K8">
-        <v>1.051126366842602</v>
+        <v>1.053993079098522</v>
       </c>
       <c r="L8">
-        <v>1.034775512403558</v>
+        <v>1.043002237195611</v>
       </c>
       <c r="M8">
-        <v>1.055544173148929</v>
+        <v>1.062626482750753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010268117893468</v>
+        <v>1.040038836832394</v>
       </c>
       <c r="D9">
-        <v>1.032476460850997</v>
+        <v>1.049622126129069</v>
       </c>
       <c r="E9">
-        <v>1.015853684136785</v>
+        <v>1.038528167532488</v>
       </c>
       <c r="F9">
-        <v>1.035764192787362</v>
+        <v>1.057977653747418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054065455780695</v>
+        <v>1.045974796983972</v>
       </c>
       <c r="J9">
-        <v>1.035463421089203</v>
+        <v>1.045812967223023</v>
       </c>
       <c r="K9">
-        <v>1.045063722937323</v>
+        <v>1.052740897854565</v>
       </c>
       <c r="L9">
-        <v>1.028694678312907</v>
+        <v>1.041682520098875</v>
       </c>
       <c r="M9">
-        <v>1.048302496865896</v>
+        <v>1.061070165836894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003200512943378</v>
+        <v>1.038662948291844</v>
       </c>
       <c r="D10">
-        <v>1.026917422884903</v>
+        <v>1.048503441270084</v>
       </c>
       <c r="E10">
-        <v>1.010266450816938</v>
+        <v>1.037362882314298</v>
       </c>
       <c r="F10">
-        <v>1.029388862431685</v>
+        <v>1.056659974472931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05136779193947</v>
+        <v>1.045548052396475</v>
       </c>
       <c r="J10">
-        <v>1.031287721739541</v>
+        <v>1.044976541133953</v>
       </c>
       <c r="K10">
-        <v>1.040817107361128</v>
+        <v>1.051904953384449</v>
       </c>
       <c r="L10">
-        <v>1.024452782827715</v>
+        <v>1.040803618527564</v>
       </c>
       <c r="M10">
-        <v>1.043247019673252</v>
+        <v>1.060033345802535</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000058536175368</v>
+        <v>1.038067863425091</v>
       </c>
       <c r="D11">
-        <v>1.024450780991225</v>
+        <v>1.048019611322684</v>
       </c>
       <c r="E11">
-        <v>1.007791248104388</v>
+        <v>1.036859354773077</v>
       </c>
       <c r="F11">
-        <v>1.026561686124621</v>
+        <v>1.056090391787377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050157686008524</v>
+        <v>1.045362044470578</v>
       </c>
       <c r="J11">
-        <v>1.029428880177024</v>
+        <v>1.044614248293595</v>
       </c>
       <c r="K11">
-        <v>1.038925866816367</v>
+        <v>1.051542720730963</v>
       </c>
       <c r="L11">
-        <v>1.022567713592645</v>
+        <v>1.040423275478066</v>
       </c>
       <c r="M11">
-        <v>1.040999489773942</v>
+        <v>1.059584580615279</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.998878556253343</v>
+        <v>1.037846926454083</v>
       </c>
       <c r="D12">
-        <v>1.023525190980994</v>
+        <v>1.047839982251594</v>
       </c>
       <c r="E12">
-        <v>1.006863035776266</v>
+        <v>1.036672481379919</v>
       </c>
       <c r="F12">
-        <v>1.025501043843333</v>
+        <v>1.055878972495927</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049701646704259</v>
+        <v>1.045292769557614</v>
       </c>
       <c r="J12">
-        <v>1.028730453541449</v>
+        <v>1.044479660468145</v>
       </c>
       <c r="K12">
-        <v>1.038215150183146</v>
+        <v>1.051408133040308</v>
       </c>
       <c r="L12">
-        <v>1.021859921525023</v>
+        <v>1.040282034474445</v>
       </c>
       <c r="M12">
-        <v>1.040155466031092</v>
+        <v>1.059417918388518</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9991322609173472</v>
+        <v>1.037894313455375</v>
       </c>
       <c r="D13">
-        <v>1.023724164261934</v>
+        <v>1.047878509338684</v>
       </c>
       <c r="E13">
-        <v>1.007062546162884</v>
+        <v>1.036712559129195</v>
       </c>
       <c r="F13">
-        <v>1.025729038786158</v>
+        <v>1.055924315878616</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049799769236039</v>
+        <v>1.045307637544308</v>
       </c>
       <c r="J13">
-        <v>1.02888063491494</v>
+        <v>1.044508530725691</v>
       </c>
       <c r="K13">
-        <v>1.0383679793899</v>
+        <v>1.051437004273414</v>
       </c>
       <c r="L13">
-        <v>1.022012094586789</v>
+        <v>1.040312329530453</v>
       </c>
       <c r="M13">
-        <v>1.040336934702236</v>
+        <v>1.05945366666068</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9999612658828984</v>
+        <v>1.038049598576195</v>
       </c>
       <c r="D14">
-        <v>1.024374465108827</v>
+        <v>1.048004761345471</v>
       </c>
       <c r="E14">
-        <v>1.007714704029167</v>
+        <v>1.03684390450409</v>
       </c>
       <c r="F14">
-        <v>1.026474230332845</v>
+        <v>1.05607291275195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050120124772084</v>
+        <v>1.045356321919549</v>
       </c>
       <c r="J14">
-        <v>1.029371312689086</v>
+        <v>1.044603123544608</v>
       </c>
       <c r="K14">
-        <v>1.038867288654862</v>
+        <v>1.051531596446035</v>
       </c>
       <c r="L14">
-        <v>1.022509364205379</v>
+        <v>1.040411599724693</v>
       </c>
       <c r="M14">
-        <v>1.040929912439678</v>
+        <v>1.059570803661023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000470312619166</v>
+        <v>1.038145288689746</v>
       </c>
       <c r="D15">
-        <v>1.024773882265866</v>
+        <v>1.048082560937926</v>
       </c>
       <c r="E15">
-        <v>1.008115339533693</v>
+        <v>1.036924851862194</v>
       </c>
       <c r="F15">
-        <v>1.026931960355399</v>
+        <v>1.05616448799438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050316630675401</v>
+        <v>1.045386293703875</v>
       </c>
       <c r="J15">
-        <v>1.029672568574001</v>
+        <v>1.044661403197911</v>
       </c>
       <c r="K15">
-        <v>1.039173828779449</v>
+        <v>1.051589872758619</v>
       </c>
       <c r="L15">
-        <v>1.022814731795582</v>
+        <v>1.040472768086928</v>
       </c>
       <c r="M15">
-        <v>1.041294035119975</v>
+        <v>1.059642979536586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003407261332571</v>
+        <v>1.038702456634549</v>
       </c>
       <c r="D16">
-        <v>1.027079835716762</v>
+        <v>1.048535563571905</v>
       </c>
       <c r="E16">
-        <v>1.010429509454391</v>
+        <v>1.03739632200994</v>
       </c>
       <c r="F16">
-        <v>1.02957504774483</v>
+        <v>1.056697796614182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05144719748137</v>
+        <v>1.045560371387418</v>
       </c>
       <c r="J16">
-        <v>1.031409988808416</v>
+        <v>1.04500058299274</v>
       </c>
       <c r="K16">
-        <v>1.040941488878744</v>
+        <v>1.051928988128898</v>
       </c>
       <c r="L16">
-        <v>1.024576842756302</v>
+        <v>1.040828865532294</v>
       </c>
       <c r="M16">
-        <v>1.043394914760554</v>
+        <v>1.060063132880838</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005227229543401</v>
+        <v>1.039052137387636</v>
       </c>
       <c r="D17">
-        <v>1.028510067227041</v>
+        <v>1.048819873336705</v>
       </c>
       <c r="E17">
-        <v>1.011865878081405</v>
+        <v>1.037692344665592</v>
       </c>
       <c r="F17">
-        <v>1.031214811772122</v>
+        <v>1.057032590881072</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052144961494994</v>
+        <v>1.045669238332236</v>
       </c>
       <c r="J17">
-        <v>1.032486004534598</v>
+        <v>1.04521331156393</v>
       </c>
       <c r="K17">
-        <v>1.042036019325986</v>
+        <v>1.052141636616666</v>
       </c>
       <c r="L17">
-        <v>1.025669005747213</v>
+        <v>1.04105229771943</v>
       </c>
       <c r="M17">
-        <v>1.044696806974609</v>
+        <v>1.060326734412797</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006280952964406</v>
+        <v>1.039256166159455</v>
       </c>
       <c r="D18">
-        <v>1.029338582130845</v>
+        <v>1.048985761108059</v>
       </c>
       <c r="E18">
-        <v>1.012698323958596</v>
+        <v>1.037865110743881</v>
       </c>
       <c r="F18">
-        <v>1.032164865883279</v>
+        <v>1.057227965265747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052547920221685</v>
+        <v>1.045732620365364</v>
       </c>
       <c r="J18">
-        <v>1.033108755604079</v>
+        <v>1.045337381386543</v>
       </c>
       <c r="K18">
-        <v>1.042669406577717</v>
+        <v>1.052265645409113</v>
       </c>
       <c r="L18">
-        <v>1.026301409479068</v>
+        <v>1.041182643767281</v>
       </c>
       <c r="M18">
-        <v>1.0454505654121</v>
+        <v>1.060480506456964</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006638935578696</v>
+        <v>1.039325745837501</v>
       </c>
       <c r="D19">
-        <v>1.029620127396083</v>
+        <v>1.049042333780381</v>
       </c>
       <c r="E19">
-        <v>1.012981268893529</v>
+        <v>1.037924036606468</v>
       </c>
       <c r="F19">
-        <v>1.032487740031368</v>
+        <v>1.057294598868913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052684641393719</v>
+        <v>1.045754211928012</v>
       </c>
       <c r="J19">
-        <v>1.033320281667817</v>
+        <v>1.045379684063928</v>
       </c>
       <c r="K19">
-        <v>1.042884531676578</v>
+        <v>1.052307924845999</v>
       </c>
       <c r="L19">
-        <v>1.026516266269366</v>
+        <v>1.041227092067469</v>
       </c>
       <c r="M19">
-        <v>1.045706637366561</v>
+        <v>1.060532941715257</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005032778913613</v>
+        <v>1.039014613126026</v>
       </c>
       <c r="D20">
-        <v>1.028357211025108</v>
+        <v>1.048789363920767</v>
       </c>
       <c r="E20">
-        <v>1.011712327022253</v>
+        <v>1.037660573770256</v>
       </c>
       <c r="F20">
-        <v>1.031039545296027</v>
+        <v>1.056996660832535</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052070517102588</v>
+        <v>1.045657570161649</v>
       </c>
       <c r="J20">
-        <v>1.032371064472057</v>
+        <v>1.045190488947107</v>
       </c>
       <c r="K20">
-        <v>1.041919109693924</v>
+        <v>1.052118824072615</v>
       </c>
       <c r="L20">
-        <v>1.025552308932919</v>
+        <v>1.041028323293191</v>
       </c>
       <c r="M20">
-        <v>1.044557709720398</v>
+        <v>1.06029845061913</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.999717506323203</v>
+        <v>1.03800386809598</v>
       </c>
       <c r="D21">
-        <v>1.024183229895629</v>
+        <v>1.047967580864273</v>
       </c>
       <c r="E21">
-        <v>1.007522906499184</v>
+        <v>1.036805222158511</v>
       </c>
       <c r="F21">
-        <v>1.026255084062029</v>
+        <v>1.056029150547686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050025970942808</v>
+        <v>1.045341990638374</v>
       </c>
       <c r="J21">
-        <v>1.029227043231239</v>
+        <v>1.044575268753482</v>
       </c>
       <c r="K21">
-        <v>1.038720484504106</v>
+        <v>1.0515037424581</v>
       </c>
       <c r="L21">
-        <v>1.022363143124184</v>
+        <v>1.040382366141418</v>
       </c>
       <c r="M21">
-        <v>1.040755552381782</v>
+        <v>1.059536308918259</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9963005420819662</v>
+        <v>1.037368975190798</v>
       </c>
       <c r="D22">
-        <v>1.02150444446041</v>
+        <v>1.047451396879707</v>
       </c>
       <c r="E22">
-        <v>1.004837644739859</v>
+        <v>1.036268350269638</v>
       </c>
       <c r="F22">
-        <v>1.023185867690661</v>
+        <v>1.055421701783377</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048702443978817</v>
+        <v>1.045142513176554</v>
       </c>
       <c r="J22">
-        <v>1.027203971138117</v>
+        <v>1.044188362610634</v>
       </c>
       <c r="K22">
-        <v>1.036661601433198</v>
+        <v>1.051116794913299</v>
       </c>
       <c r="L22">
-        <v>1.020313872272327</v>
+        <v>1.039976432309079</v>
       </c>
       <c r="M22">
-        <v>1.038311588589075</v>
+        <v>1.059057289495435</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9981192779673379</v>
+        <v>1.037705486380273</v>
       </c>
       <c r="D23">
-        <v>1.022929827917592</v>
+        <v>1.047724987509291</v>
       </c>
       <c r="E23">
-        <v>1.00626615180117</v>
+        <v>1.036552868320497</v>
       </c>
       <c r="F23">
-        <v>1.024818876227396</v>
+        <v>1.055743639471677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049407761311651</v>
+        <v>1.045248360199719</v>
       </c>
       <c r="J23">
-        <v>1.028280950671842</v>
+        <v>1.044393477299317</v>
       </c>
       <c r="K23">
-        <v>1.03775770571443</v>
+        <v>1.051321943710738</v>
       </c>
       <c r="L23">
-        <v>1.021404529281393</v>
+        <v>1.040191605670057</v>
       </c>
       <c r="M23">
-        <v>1.039612383695745</v>
+        <v>1.059311210240929</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005120666943689</v>
+        <v>1.039031568521126</v>
       </c>
       <c r="D24">
-        <v>1.028426297793557</v>
+        <v>1.048803149643752</v>
       </c>
       <c r="E24">
-        <v>1.011781726681898</v>
+        <v>1.037674929358194</v>
       </c>
       <c r="F24">
-        <v>1.03111876039148</v>
+        <v>1.057012895782917</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052104167771543</v>
+        <v>1.04566284287102</v>
       </c>
       <c r="J24">
-        <v>1.032423015965589</v>
+        <v>1.045200801539846</v>
       </c>
       <c r="K24">
-        <v>1.041971951655213</v>
+        <v>1.052129132158154</v>
       </c>
       <c r="L24">
-        <v>1.025605053503938</v>
+        <v>1.041039156237118</v>
       </c>
       <c r="M24">
-        <v>1.044620579099613</v>
+        <v>1.060311230793398</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012940048748257</v>
+        <v>1.040572993677315</v>
       </c>
       <c r="D25">
-        <v>1.034581752626384</v>
+        <v>1.050056436651793</v>
       </c>
       <c r="E25">
-        <v>1.017973104570065</v>
+        <v>1.038980977741183</v>
       </c>
       <c r="F25">
-        <v>1.038180169295793</v>
+        <v>1.05848950014274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055075639117822</v>
+        <v>1.046139187070061</v>
       </c>
       <c r="J25">
-        <v>1.037039640577704</v>
+        <v>1.046137214785243</v>
       </c>
       <c r="K25">
-        <v>1.046665943583743</v>
+        <v>1.053064825876424</v>
       </c>
       <c r="L25">
-        <v>1.030298674063004</v>
+        <v>1.042023543558615</v>
       </c>
       <c r="M25">
-        <v>1.050213350060714</v>
+        <v>1.061472389461825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_152/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041804464500799</v>
+        <v>1.018951995817235</v>
       </c>
       <c r="D2">
-        <v>1.051057722846996</v>
+        <v>1.039325812583286</v>
       </c>
       <c r="E2">
-        <v>1.040025812447301</v>
+        <v>1.022756595302072</v>
       </c>
       <c r="F2">
-        <v>1.059670161041093</v>
+        <v>1.043627935217139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046515349916376</v>
+        <v>1.057326724989831</v>
       </c>
       <c r="J2">
-        <v>1.046883698422676</v>
+        <v>1.040580263693331</v>
       </c>
       <c r="K2">
-        <v>1.053810279920723</v>
+        <v>1.050263170891194</v>
       </c>
       <c r="L2">
-        <v>1.0428093309011</v>
+        <v>1.033907743140564</v>
       </c>
       <c r="M2">
-        <v>1.062399032429219</v>
+        <v>1.054511168346385</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042699779461084</v>
+        <v>1.023196566081197</v>
       </c>
       <c r="D3">
-        <v>1.051785684973364</v>
+        <v>1.042680902625749</v>
       </c>
       <c r="E3">
-        <v>1.040786244702254</v>
+        <v>1.026146429202695</v>
       </c>
       <c r="F3">
-        <v>1.060529093033269</v>
+        <v>1.047484111177961</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046786279295741</v>
+        <v>1.058895900232825</v>
       </c>
       <c r="J3">
-        <v>1.047425461809878</v>
+        <v>1.04307424129586</v>
       </c>
       <c r="K3">
-        <v>1.05435103014468</v>
+        <v>1.052795314713729</v>
       </c>
       <c r="L3">
-        <v>1.043380233574392</v>
+        <v>1.036455344425027</v>
       </c>
       <c r="M3">
-        <v>1.06307212643042</v>
+        <v>1.057543441099188</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04327963670386</v>
+        <v>1.025890234499149</v>
       </c>
       <c r="D4">
-        <v>1.052257150708121</v>
+        <v>1.044812431441096</v>
       </c>
       <c r="E4">
-        <v>1.041279114036585</v>
+        <v>1.028303227647342</v>
       </c>
       <c r="F4">
-        <v>1.061085641440234</v>
+        <v>1.049935642538985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046960567263925</v>
+        <v>1.059882161962273</v>
       </c>
       <c r="J4">
-        <v>1.047775896780014</v>
+        <v>1.044654076893721</v>
       </c>
       <c r="K4">
-        <v>1.054700686201352</v>
+        <v>1.054398497718215</v>
       </c>
       <c r="L4">
-        <v>1.043749801297007</v>
+        <v>1.038071649123587</v>
       </c>
       <c r="M4">
-        <v>1.063507779662342</v>
+        <v>1.059466548225947</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043523533902915</v>
+        <v>1.027010415860604</v>
       </c>
       <c r="D5">
-        <v>1.052455455200362</v>
+        <v>1.045699362769167</v>
       </c>
       <c r="E5">
-        <v>1.041486510733213</v>
+        <v>1.029201444192567</v>
       </c>
       <c r="F5">
-        <v>1.061319795130716</v>
+        <v>1.05095613614031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047033592648052</v>
+        <v>1.060289976962631</v>
       </c>
       <c r="J5">
-        <v>1.047923189257279</v>
+        <v>1.045310342217017</v>
       </c>
       <c r="K5">
-        <v>1.0548476216312</v>
+        <v>1.05506425664788</v>
       </c>
       <c r="L5">
-        <v>1.043905203574987</v>
+        <v>1.038743663765642</v>
       </c>
       <c r="M5">
-        <v>1.063690954743023</v>
+        <v>1.0602659571142</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0435644926198</v>
+        <v>1.027197793410054</v>
       </c>
       <c r="D6">
-        <v>1.052488757232648</v>
+        <v>1.045847752961404</v>
       </c>
       <c r="E6">
-        <v>1.041521344906079</v>
+        <v>1.029351767878936</v>
       </c>
       <c r="F6">
-        <v>1.061359121115607</v>
+        <v>1.051126896653752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047045839526733</v>
+        <v>1.060358056018614</v>
       </c>
       <c r="J6">
-        <v>1.047947918497557</v>
+        <v>1.0454200753293</v>
       </c>
       <c r="K6">
-        <v>1.054872289184393</v>
+        <v>1.055175564952707</v>
       </c>
       <c r="L6">
-        <v>1.043931298377178</v>
+        <v>1.038856065577916</v>
       </c>
       <c r="M6">
-        <v>1.063721712155978</v>
+        <v>1.060399657290022</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043282895179825</v>
+        <v>1.025905249962015</v>
       </c>
       <c r="D7">
-        <v>1.052259800070339</v>
+        <v>1.044824318306301</v>
       </c>
       <c r="E7">
-        <v>1.041281884519432</v>
+        <v>1.028315262712696</v>
       </c>
       <c r="F7">
-        <v>1.061088769505224</v>
+        <v>1.049949317808266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046961543997376</v>
+        <v>1.059887637759344</v>
       </c>
       <c r="J7">
-        <v>1.047777865030117</v>
+        <v>1.044662876682055</v>
       </c>
       <c r="K7">
-        <v>1.054702649796931</v>
+        <v>1.05440742562273</v>
       </c>
       <c r="L7">
-        <v>1.043751877649903</v>
+        <v>1.038080657721788</v>
       </c>
       <c r="M7">
-        <v>1.06351022715452</v>
+        <v>1.059477265243409</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042106930131979</v>
+        <v>1.02039766837615</v>
       </c>
       <c r="D8">
-        <v>1.051303651989023</v>
+        <v>1.040468018598054</v>
       </c>
       <c r="E8">
-        <v>1.040282633586254</v>
+        <v>1.023909962395382</v>
       </c>
       <c r="F8">
-        <v>1.059960282349027</v>
+        <v>1.044940390930816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046607122823236</v>
+        <v>1.057863157302245</v>
       </c>
       <c r="J8">
-        <v>1.047066814507837</v>
+        <v>1.041430281186894</v>
       </c>
       <c r="K8">
-        <v>1.053993079098522</v>
+        <v>1.051126366842602</v>
       </c>
       <c r="L8">
-        <v>1.043002237195611</v>
+        <v>1.034775512403558</v>
       </c>
       <c r="M8">
-        <v>1.062626482750753</v>
+        <v>1.055544173148928</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040038836832394</v>
+        <v>1.010268117893467</v>
       </c>
       <c r="D9">
-        <v>1.049622126129069</v>
+        <v>1.032476460850996</v>
       </c>
       <c r="E9">
-        <v>1.038528167532488</v>
+        <v>1.015853684136784</v>
       </c>
       <c r="F9">
-        <v>1.057977653747418</v>
+        <v>1.035764192787361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045974796983972</v>
+        <v>1.054065455780694</v>
       </c>
       <c r="J9">
-        <v>1.045812967223023</v>
+        <v>1.035463421089202</v>
       </c>
       <c r="K9">
-        <v>1.052740897854565</v>
+        <v>1.045063722937322</v>
       </c>
       <c r="L9">
-        <v>1.041682520098875</v>
+        <v>1.028694678312907</v>
       </c>
       <c r="M9">
-        <v>1.061070165836894</v>
+        <v>1.048302496865894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038662948291844</v>
+        <v>1.003200512943379</v>
       </c>
       <c r="D10">
-        <v>1.048503441270084</v>
+        <v>1.026917422884903</v>
       </c>
       <c r="E10">
-        <v>1.037362882314298</v>
+        <v>1.010266450816939</v>
       </c>
       <c r="F10">
-        <v>1.056659974472931</v>
+        <v>1.029388862431686</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045548052396475</v>
+        <v>1.05136779193947</v>
       </c>
       <c r="J10">
-        <v>1.044976541133953</v>
+        <v>1.031287721739542</v>
       </c>
       <c r="K10">
-        <v>1.051904953384449</v>
+        <v>1.040817107361129</v>
       </c>
       <c r="L10">
-        <v>1.040803618527564</v>
+        <v>1.024452782827716</v>
       </c>
       <c r="M10">
-        <v>1.060033345802535</v>
+        <v>1.043247019673252</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038067863425091</v>
+        <v>1.000058536175368</v>
       </c>
       <c r="D11">
-        <v>1.048019611322684</v>
+        <v>1.024450780991225</v>
       </c>
       <c r="E11">
-        <v>1.036859354773077</v>
+        <v>1.007791248104387</v>
       </c>
       <c r="F11">
-        <v>1.056090391787377</v>
+        <v>1.026561686124622</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045362044470578</v>
+        <v>1.050157686008525</v>
       </c>
       <c r="J11">
-        <v>1.044614248293595</v>
+        <v>1.029428880177025</v>
       </c>
       <c r="K11">
-        <v>1.051542720730963</v>
+        <v>1.038925866816367</v>
       </c>
       <c r="L11">
-        <v>1.040423275478066</v>
+        <v>1.022567713592645</v>
       </c>
       <c r="M11">
-        <v>1.059584580615279</v>
+        <v>1.040999489773942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037846926454083</v>
+        <v>0.9988785562533423</v>
       </c>
       <c r="D12">
-        <v>1.047839982251594</v>
+        <v>1.023525190980994</v>
       </c>
       <c r="E12">
-        <v>1.036672481379919</v>
+        <v>1.006863035776266</v>
       </c>
       <c r="F12">
-        <v>1.055878972495927</v>
+        <v>1.025501043843333</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045292769557614</v>
+        <v>1.049701646704258</v>
       </c>
       <c r="J12">
-        <v>1.044479660468145</v>
+        <v>1.028730453541449</v>
       </c>
       <c r="K12">
-        <v>1.051408133040308</v>
+        <v>1.038215150183146</v>
       </c>
       <c r="L12">
-        <v>1.040282034474445</v>
+        <v>1.021859921525022</v>
       </c>
       <c r="M12">
-        <v>1.059417918388518</v>
+        <v>1.040155466031092</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037894313455375</v>
+        <v>0.9991322609173477</v>
       </c>
       <c r="D13">
-        <v>1.047878509338684</v>
+        <v>1.023724164261934</v>
       </c>
       <c r="E13">
-        <v>1.036712559129195</v>
+        <v>1.007062546162885</v>
       </c>
       <c r="F13">
-        <v>1.055924315878616</v>
+        <v>1.025729038786158</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045307637544308</v>
+        <v>1.04979976923604</v>
       </c>
       <c r="J13">
-        <v>1.044508530725691</v>
+        <v>1.028880634914941</v>
       </c>
       <c r="K13">
-        <v>1.051437004273414</v>
+        <v>1.038367979389901</v>
       </c>
       <c r="L13">
-        <v>1.040312329530453</v>
+        <v>1.02201209458679</v>
       </c>
       <c r="M13">
-        <v>1.05945366666068</v>
+        <v>1.040336934702236</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038049598576195</v>
+        <v>0.9999612658828987</v>
       </c>
       <c r="D14">
-        <v>1.048004761345471</v>
+        <v>1.024374465108827</v>
       </c>
       <c r="E14">
-        <v>1.03684390450409</v>
+        <v>1.007714704029168</v>
       </c>
       <c r="F14">
-        <v>1.05607291275195</v>
+        <v>1.026474230332844</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045356321919549</v>
+        <v>1.050120124772084</v>
       </c>
       <c r="J14">
-        <v>1.044603123544608</v>
+        <v>1.029371312689087</v>
       </c>
       <c r="K14">
-        <v>1.051531596446035</v>
+        <v>1.038867288654862</v>
       </c>
       <c r="L14">
-        <v>1.040411599724693</v>
+        <v>1.02250936420538</v>
       </c>
       <c r="M14">
-        <v>1.059570803661023</v>
+        <v>1.040929912439678</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038145288689746</v>
+        <v>1.000470312619165</v>
       </c>
       <c r="D15">
-        <v>1.048082560937926</v>
+        <v>1.024773882265866</v>
       </c>
       <c r="E15">
-        <v>1.036924851862194</v>
+        <v>1.008115339533693</v>
       </c>
       <c r="F15">
-        <v>1.05616448799438</v>
+        <v>1.026931960355398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045386293703875</v>
+        <v>1.050316630675401</v>
       </c>
       <c r="J15">
-        <v>1.044661403197911</v>
+        <v>1.029672568574001</v>
       </c>
       <c r="K15">
-        <v>1.051589872758619</v>
+        <v>1.039173828779448</v>
       </c>
       <c r="L15">
-        <v>1.040472768086928</v>
+        <v>1.022814731795582</v>
       </c>
       <c r="M15">
-        <v>1.059642979536586</v>
+        <v>1.041294035119975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038702456634549</v>
+        <v>1.003407261332572</v>
       </c>
       <c r="D16">
-        <v>1.048535563571905</v>
+        <v>1.027079835716762</v>
       </c>
       <c r="E16">
-        <v>1.03739632200994</v>
+        <v>1.010429509454392</v>
       </c>
       <c r="F16">
-        <v>1.056697796614182</v>
+        <v>1.02957504774483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045560371387418</v>
+        <v>1.05144719748137</v>
       </c>
       <c r="J16">
-        <v>1.04500058299274</v>
+        <v>1.031409988808416</v>
       </c>
       <c r="K16">
-        <v>1.051928988128898</v>
+        <v>1.040941488878744</v>
       </c>
       <c r="L16">
-        <v>1.040828865532294</v>
+        <v>1.024576842756302</v>
       </c>
       <c r="M16">
-        <v>1.060063132880838</v>
+        <v>1.043394914760555</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039052137387636</v>
+        <v>1.0052272295434</v>
       </c>
       <c r="D17">
-        <v>1.048819873336705</v>
+        <v>1.02851006722704</v>
       </c>
       <c r="E17">
-        <v>1.037692344665592</v>
+        <v>1.011865878081404</v>
       </c>
       <c r="F17">
-        <v>1.057032590881072</v>
+        <v>1.031214811772121</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045669238332236</v>
+        <v>1.052144961494993</v>
       </c>
       <c r="J17">
-        <v>1.04521331156393</v>
+        <v>1.032486004534596</v>
       </c>
       <c r="K17">
-        <v>1.052141636616666</v>
+        <v>1.042036019325985</v>
       </c>
       <c r="L17">
-        <v>1.04105229771943</v>
+        <v>1.025669005747212</v>
       </c>
       <c r="M17">
-        <v>1.060326734412797</v>
+        <v>1.044696806974608</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039256166159455</v>
+        <v>1.006280952964406</v>
       </c>
       <c r="D18">
-        <v>1.048985761108059</v>
+        <v>1.029338582130845</v>
       </c>
       <c r="E18">
-        <v>1.037865110743881</v>
+        <v>1.012698323958595</v>
       </c>
       <c r="F18">
-        <v>1.057227965265747</v>
+        <v>1.032164865883278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045732620365364</v>
+        <v>1.052547920221684</v>
       </c>
       <c r="J18">
-        <v>1.045337381386543</v>
+        <v>1.033108755604077</v>
       </c>
       <c r="K18">
-        <v>1.052265645409113</v>
+        <v>1.042669406577716</v>
       </c>
       <c r="L18">
-        <v>1.041182643767281</v>
+        <v>1.026301409479067</v>
       </c>
       <c r="M18">
-        <v>1.060480506456964</v>
+        <v>1.045450565412099</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039325745837501</v>
+        <v>1.006638935578696</v>
       </c>
       <c r="D19">
-        <v>1.049042333780381</v>
+        <v>1.029620127396083</v>
       </c>
       <c r="E19">
-        <v>1.037924036606468</v>
+        <v>1.012981268893529</v>
       </c>
       <c r="F19">
-        <v>1.057294598868913</v>
+        <v>1.032487740031368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045754211928012</v>
+        <v>1.052684641393719</v>
       </c>
       <c r="J19">
-        <v>1.045379684063928</v>
+        <v>1.033320281667818</v>
       </c>
       <c r="K19">
-        <v>1.052307924845999</v>
+        <v>1.042884531676579</v>
       </c>
       <c r="L19">
-        <v>1.041227092067469</v>
+        <v>1.026516266269367</v>
       </c>
       <c r="M19">
-        <v>1.060532941715257</v>
+        <v>1.045706637366561</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039014613126026</v>
+        <v>1.005032778913613</v>
       </c>
       <c r="D20">
-        <v>1.048789363920767</v>
+        <v>1.028357211025109</v>
       </c>
       <c r="E20">
-        <v>1.037660573770256</v>
+        <v>1.011712327022254</v>
       </c>
       <c r="F20">
-        <v>1.056996660832535</v>
+        <v>1.031039545296028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045657570161649</v>
+        <v>1.052070517102588</v>
       </c>
       <c r="J20">
-        <v>1.045190488947107</v>
+        <v>1.032371064472057</v>
       </c>
       <c r="K20">
-        <v>1.052118824072615</v>
+        <v>1.041919109693924</v>
       </c>
       <c r="L20">
-        <v>1.041028323293191</v>
+        <v>1.025552308932919</v>
       </c>
       <c r="M20">
-        <v>1.06029845061913</v>
+        <v>1.044557709720398</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03800386809598</v>
+        <v>0.999717506323202</v>
       </c>
       <c r="D21">
-        <v>1.047967580864273</v>
+        <v>1.024183229895628</v>
       </c>
       <c r="E21">
-        <v>1.036805222158511</v>
+        <v>1.007522906499183</v>
       </c>
       <c r="F21">
-        <v>1.056029150547686</v>
+        <v>1.026255084062028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045341990638374</v>
+        <v>1.050025970942807</v>
       </c>
       <c r="J21">
-        <v>1.044575268753482</v>
+        <v>1.029227043231238</v>
       </c>
       <c r="K21">
-        <v>1.0515037424581</v>
+        <v>1.038720484504106</v>
       </c>
       <c r="L21">
-        <v>1.040382366141418</v>
+        <v>1.022363143124184</v>
       </c>
       <c r="M21">
-        <v>1.059536308918259</v>
+        <v>1.040755552381781</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037368975190798</v>
+        <v>0.9963005420819649</v>
       </c>
       <c r="D22">
-        <v>1.047451396879707</v>
+        <v>1.021504444460409</v>
       </c>
       <c r="E22">
-        <v>1.036268350269638</v>
+        <v>1.004837644739858</v>
       </c>
       <c r="F22">
-        <v>1.055421701783377</v>
+        <v>1.02318586769066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045142513176554</v>
+        <v>1.048702443978816</v>
       </c>
       <c r="J22">
-        <v>1.044188362610634</v>
+        <v>1.027203971138116</v>
       </c>
       <c r="K22">
-        <v>1.051116794913299</v>
+        <v>1.036661601433197</v>
       </c>
       <c r="L22">
-        <v>1.039976432309079</v>
+        <v>1.020313872272326</v>
       </c>
       <c r="M22">
-        <v>1.059057289495435</v>
+        <v>1.038311588589073</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037705486380273</v>
+        <v>0.998119277967339</v>
       </c>
       <c r="D23">
-        <v>1.047724987509291</v>
+        <v>1.022929827917593</v>
       </c>
       <c r="E23">
-        <v>1.036552868320497</v>
+        <v>1.006266151801171</v>
       </c>
       <c r="F23">
-        <v>1.055743639471677</v>
+        <v>1.024818876227397</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045248360199719</v>
+        <v>1.049407761311651</v>
       </c>
       <c r="J23">
-        <v>1.044393477299317</v>
+        <v>1.028280950671844</v>
       </c>
       <c r="K23">
-        <v>1.051321943710738</v>
+        <v>1.037757705714431</v>
       </c>
       <c r="L23">
-        <v>1.040191605670057</v>
+        <v>1.021404529281394</v>
       </c>
       <c r="M23">
-        <v>1.059311210240929</v>
+        <v>1.039612383695746</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039031568521126</v>
+        <v>1.005120666943688</v>
       </c>
       <c r="D24">
-        <v>1.048803149643752</v>
+        <v>1.028426297793556</v>
       </c>
       <c r="E24">
-        <v>1.037674929358194</v>
+        <v>1.011781726681896</v>
       </c>
       <c r="F24">
-        <v>1.057012895782917</v>
+        <v>1.031118760391479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04566284287102</v>
+        <v>1.052104167771543</v>
       </c>
       <c r="J24">
-        <v>1.045200801539846</v>
+        <v>1.032423015965587</v>
       </c>
       <c r="K24">
-        <v>1.052129132158154</v>
+        <v>1.041971951655212</v>
       </c>
       <c r="L24">
-        <v>1.041039156237118</v>
+        <v>1.025605053503937</v>
       </c>
       <c r="M24">
-        <v>1.060311230793398</v>
+        <v>1.044620579099612</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040572993677315</v>
+        <v>1.012940048748256</v>
       </c>
       <c r="D25">
-        <v>1.050056436651793</v>
+        <v>1.034581752626383</v>
       </c>
       <c r="E25">
-        <v>1.038980977741183</v>
+        <v>1.017973104570064</v>
       </c>
       <c r="F25">
-        <v>1.05848950014274</v>
+        <v>1.038180169295793</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046139187070061</v>
+        <v>1.055075639117822</v>
       </c>
       <c r="J25">
-        <v>1.046137214785243</v>
+        <v>1.037039640577704</v>
       </c>
       <c r="K25">
-        <v>1.053064825876424</v>
+        <v>1.046665943583742</v>
       </c>
       <c r="L25">
-        <v>1.042023543558615</v>
+        <v>1.030298674063003</v>
       </c>
       <c r="M25">
-        <v>1.061472389461825</v>
+        <v>1.050213350060714</v>
       </c>
     </row>
   </sheetData>
